--- a/Extraction/assets/output_file.xlsx
+++ b/Extraction/assets/output_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="4361">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="4421">
   <x:si>
     <x:t>gender</x:t>
   </x:si>
@@ -13137,6 +13137,186 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/jackets/kenzo-vintage-2000-s-blazer-fqlgn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lafayette 148 Evening JacketNeutralsPointed CollarZip ClosureFit:Jackets by Lafayette 148 typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 66% Linen, 32% Viscose, 2% Elastane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Now 10% off - £45.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Est. Retail £613.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:33:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fqidj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miu Miu BlazerVintageFrom the 2006 Collection by Miuccia PradaBluePointed CollarFlap Pockets &amp; Snap ClosureDesigner Fit: Jackets by Miu Miu typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 59% Polyester, 41% Acetate; Combo 59% Polyester, 41% Acetate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:34:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-vintage-2006-blazer-fqdj2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prada Down JacketFrom the 2016 CollectionBlackStand CollarZip Pockets &amp; Zip ClosureDesigner Fit: Designed for a slim fit, those with a curvy figure may wish to take one size up.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 100% Nylon; Lining 100% Nylon; Combo 88% Virgin Wool, 10% Nylon, 2% Elastane; Combo 2 100% Polyester; Fill 90% Down, 10% Feather</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:34:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/prada-2016-down-jacket-fqdit</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rachel Zoe: All </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel Zoe VestBrownStand CollarSlit Pockets &amp; Hook and Eye ClosureFit:Jackets by Rachel Zoe typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 85% Acrylic, 15% Modacrylic; Lining 100% Polyester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Est. Retail £386.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:35:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rachel-zoe-vest-fq4ia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smythe Evening JacketGreyPrintedWith HoodStand CollarHook and Eye ClosureFit:Jackets by Smythe typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 50% Acrylic, 50% Wool; Trim 73% Acrylic, 13% Cotton, 7% Viscose, 7% Polyester; Lining 97% Polyester, 3% Elastane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:36:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/smythe-printed-evening-jacket-fq1sk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dolce &amp; Gabbana Bomber JacketWhiteEmbroidered Accent &amp; Stand CollarFlap Pockets &amp; Button ClosureDesigner Fit: Designed for a slim fit, those with a curvy figure may wish to take one size up.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 52% Cotton, 18% Silk, 14% Polyester, 8% Viscose, 3% Acrylic, 3% Elastane, 2% Acetate; Lining 94% Silk, 6% Elastane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:36:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-bomber-jacket-fq1ja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brunello Cucinelli Cashmere VestBrownStand CollarZip ClosureDesigner Fit: Jackets by Brunello Cucinelli typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 100% Cashmere; Combo 100% Leather</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:37:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-cashmere-vest-fq13m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gucci JacketVintageFrom the Fall 2004 Collection by Tom FordBlackPleated Accents &amp; Stand CollarZip Pockets &amp; Zip ClosureDesigner Fit: Designed for a slim fit, those with a curvy figure may wish to take one size up.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 98% Nylon, 2% Polyurethane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:38:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2004-jacket-fpvxy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prada Utility JacketVintageFrom the Late 1990's - Early 2000's CollectionBrownPointed CollarPatch Pockets &amp; Button ClosureDesigner Fit: Designed for a slim fit, those with a curvy figure may wish to take one size up.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 90% Polyester, 10% Spandex; Lining 100% Rayon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:39:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-utility-jacket-fpjud</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Patagonia: All </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patagonia Faux Fur JacketBlueStand CollarSlit Pockets &amp; Zip ClosureFit:Jackets by Patachou typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Est. Retail £285.72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:40:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-faux-fur-jacket-fp3q7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Balenciaga VestFrom the Spring/Summer 2010 Collection by Nicolas GhesquièreBlueWith HoodLeather Trim Embellishment &amp; CollarlessFit:Jackets by Balenciaga typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 95% Cotton, 5% Lambskin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Est. Retail £1,529.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:41:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2010-vest-fozwq</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Halpern: All </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halpern BoleroBlueStripedCollarlessFit:Jackets by Halpern typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 65% Cotton, 35% Viscose; Lining 100% Silk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:42:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/halpern-striped-bolero-foyva</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Maticevski: All </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maticevski CapeBlackCollarlessZip ClosureFit:Jackets by Maticevski typically fit true to size.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fabric: 89% Rayon, 11% Nylon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2022 13:43:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/maticevski-cape-fopoi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -48757,6 +48937,539 @@
         <x:v>4360</x:v>
       </x:c>
     </x:row>
+    <x:row r="864" spans="1:16">
+      <x:c r="A864" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B864" s="0" t="s">
+        <x:v>3726</x:v>
+      </x:c>
+      <x:c r="C864" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D864" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E864" s="0" t="s">
+        <x:v>4361</x:v>
+      </x:c>
+      <x:c r="F864" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G864" s="0" t="s">
+        <x:v>4362</x:v>
+      </x:c>
+      <x:c r="I864" s="0" t="s">
+        <x:v>3728</x:v>
+      </x:c>
+      <x:c r="J864" s="0" t="s">
+        <x:v>4363</x:v>
+      </x:c>
+      <x:c r="K864" s="0" t="s">
+        <x:v>4364</x:v>
+      </x:c>
+      <x:c r="L864" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M864" s="0" t="s">
+        <x:v>4365</x:v>
+      </x:c>
+      <x:c r="N864" s="0" t="s">
+        <x:v>4366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="865" spans="1:16">
+      <x:c r="A865" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B865" s="0" t="s">
+        <x:v>1363</x:v>
+      </x:c>
+      <x:c r="C865" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D865" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E865" s="0" t="s">
+        <x:v>4367</x:v>
+      </x:c>
+      <x:c r="F865" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G865" s="0" t="s">
+        <x:v>4368</x:v>
+      </x:c>
+      <x:c r="I865" s="0" t="s">
+        <x:v>4030</x:v>
+      </x:c>
+      <x:c r="J865" s="0" t="s">
+        <x:v>4363</x:v>
+      </x:c>
+      <x:c r="K865" s="0" t="s">
+        <x:v>4364</x:v>
+      </x:c>
+      <x:c r="L865" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M865" s="0" t="s">
+        <x:v>4369</x:v>
+      </x:c>
+      <x:c r="N865" s="0" t="s">
+        <x:v>4370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="866" spans="1:16">
+      <x:c r="A866" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B866" s="0" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="C866" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D866" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E866" s="0" t="s">
+        <x:v>4371</x:v>
+      </x:c>
+      <x:c r="F866" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G866" s="0" t="s">
+        <x:v>4372</x:v>
+      </x:c>
+      <x:c r="I866" s="0" t="s">
+        <x:v>3608</x:v>
+      </x:c>
+      <x:c r="J866" s="0" t="s">
+        <x:v>4363</x:v>
+      </x:c>
+      <x:c r="K866" s="0" t="s">
+        <x:v>4364</x:v>
+      </x:c>
+      <x:c r="L866" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M866" s="0" t="s">
+        <x:v>4373</x:v>
+      </x:c>
+      <x:c r="N866" s="0" t="s">
+        <x:v>4374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="867" spans="1:16">
+      <x:c r="A867" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B867" s="0" t="s">
+        <x:v>4375</x:v>
+      </x:c>
+      <x:c r="C867" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D867" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E867" s="0" t="s">
+        <x:v>4376</x:v>
+      </x:c>
+      <x:c r="F867" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G867" s="0" t="s">
+        <x:v>4377</x:v>
+      </x:c>
+      <x:c r="I867" s="0" t="s">
+        <x:v>3466</x:v>
+      </x:c>
+      <x:c r="J867" s="0" t="s">
+        <x:v>3467</x:v>
+      </x:c>
+      <x:c r="K867" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L867" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M867" s="0" t="s">
+        <x:v>4379</x:v>
+      </x:c>
+      <x:c r="N867" s="0" t="s">
+        <x:v>4380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="868" spans="1:16">
+      <x:c r="A868" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B868" s="0" t="s">
+        <x:v>3038</x:v>
+      </x:c>
+      <x:c r="C868" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D868" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E868" s="0" t="s">
+        <x:v>4381</x:v>
+      </x:c>
+      <x:c r="F868" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G868" s="0" t="s">
+        <x:v>4382</x:v>
+      </x:c>
+      <x:c r="I868" s="0" t="s">
+        <x:v>3571</x:v>
+      </x:c>
+      <x:c r="J868" s="0" t="s">
+        <x:v>3467</x:v>
+      </x:c>
+      <x:c r="K868" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L868" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M868" s="0" t="s">
+        <x:v>4383</x:v>
+      </x:c>
+      <x:c r="N868" s="0" t="s">
+        <x:v>4384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="869" spans="1:16">
+      <x:c r="A869" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B869" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C869" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D869" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E869" s="0" t="s">
+        <x:v>4385</x:v>
+      </x:c>
+      <x:c r="F869" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G869" s="0" t="s">
+        <x:v>4386</x:v>
+      </x:c>
+      <x:c r="I869" s="0" t="s">
+        <x:v>3903</x:v>
+      </x:c>
+      <x:c r="J869" s="0" t="s">
+        <x:v>3904</x:v>
+      </x:c>
+      <x:c r="K869" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L869" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M869" s="0" t="s">
+        <x:v>4387</x:v>
+      </x:c>
+      <x:c r="N869" s="0" t="s">
+        <x:v>4388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="870" spans="1:16">
+      <x:c r="A870" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B870" s="0" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="C870" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D870" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E870" s="0" t="s">
+        <x:v>4389</x:v>
+      </x:c>
+      <x:c r="F870" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G870" s="0" t="s">
+        <x:v>4390</x:v>
+      </x:c>
+      <x:c r="I870" s="0" t="s">
+        <x:v>3585</x:v>
+      </x:c>
+      <x:c r="J870" s="0" t="s">
+        <x:v>3586</x:v>
+      </x:c>
+      <x:c r="K870" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L870" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M870" s="0" t="s">
+        <x:v>4391</x:v>
+      </x:c>
+      <x:c r="N870" s="0" t="s">
+        <x:v>4392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="871" spans="1:16">
+      <x:c r="A871" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B871" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C871" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D871" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E871" s="0" t="s">
+        <x:v>4393</x:v>
+      </x:c>
+      <x:c r="F871" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G871" s="0" t="s">
+        <x:v>4394</x:v>
+      </x:c>
+      <x:c r="I871" s="0" t="s">
+        <x:v>3714</x:v>
+      </x:c>
+      <x:c r="J871" s="0" t="s">
+        <x:v>3715</x:v>
+      </x:c>
+      <x:c r="K871" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L871" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M871" s="0" t="s">
+        <x:v>4395</x:v>
+      </x:c>
+      <x:c r="N871" s="0" t="s">
+        <x:v>4396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="872" spans="1:16">
+      <x:c r="A872" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B872" s="0" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="C872" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D872" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E872" s="0" t="s">
+        <x:v>4397</x:v>
+      </x:c>
+      <x:c r="F872" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G872" s="0" t="s">
+        <x:v>4398</x:v>
+      </x:c>
+      <x:c r="I872" s="0" t="s">
+        <x:v>3489</x:v>
+      </x:c>
+      <x:c r="J872" s="0" t="s">
+        <x:v>3490</x:v>
+      </x:c>
+      <x:c r="K872" s="0" t="s">
+        <x:v>4378</x:v>
+      </x:c>
+      <x:c r="L872" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M872" s="0" t="s">
+        <x:v>4399</x:v>
+      </x:c>
+      <x:c r="N872" s="0" t="s">
+        <x:v>4400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="873" spans="1:16">
+      <x:c r="A873" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B873" s="0" t="s">
+        <x:v>4401</x:v>
+      </x:c>
+      <x:c r="C873" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D873" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E873" s="0" t="s">
+        <x:v>4402</x:v>
+      </x:c>
+      <x:c r="F873" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G873" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I873" s="0" t="s">
+        <x:v>3500</x:v>
+      </x:c>
+      <x:c r="J873" s="0" t="s">
+        <x:v>3501</x:v>
+      </x:c>
+      <x:c r="K873" s="0" t="s">
+        <x:v>4403</x:v>
+      </x:c>
+      <x:c r="L873" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M873" s="0" t="s">
+        <x:v>4404</x:v>
+      </x:c>
+      <x:c r="N873" s="0" t="s">
+        <x:v>4405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="874" spans="1:16">
+      <x:c r="A874" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B874" s="0" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+      <x:c r="C874" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D874" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E874" s="0" t="s">
+        <x:v>4406</x:v>
+      </x:c>
+      <x:c r="F874" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G874" s="0" t="s">
+        <x:v>4407</x:v>
+      </x:c>
+      <x:c r="I874" s="0" t="s">
+        <x:v>3489</x:v>
+      </x:c>
+      <x:c r="J874" s="0" t="s">
+        <x:v>3490</x:v>
+      </x:c>
+      <x:c r="K874" s="0" t="s">
+        <x:v>4408</x:v>
+      </x:c>
+      <x:c r="L874" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M874" s="0" t="s">
+        <x:v>4409</x:v>
+      </x:c>
+      <x:c r="N874" s="0" t="s">
+        <x:v>4410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="875" spans="1:16">
+      <x:c r="A875" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B875" s="0" t="s">
+        <x:v>4411</x:v>
+      </x:c>
+      <x:c r="C875" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D875" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E875" s="0" t="s">
+        <x:v>4412</x:v>
+      </x:c>
+      <x:c r="F875" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G875" s="0" t="s">
+        <x:v>4413</x:v>
+      </x:c>
+      <x:c r="I875" s="0" t="s">
+        <x:v>4282</x:v>
+      </x:c>
+      <x:c r="J875" s="0" t="s">
+        <x:v>4283</x:v>
+      </x:c>
+      <x:c r="K875" s="0" t="s">
+        <x:v>4408</x:v>
+      </x:c>
+      <x:c r="L875" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M875" s="0" t="s">
+        <x:v>4414</x:v>
+      </x:c>
+      <x:c r="N875" s="0" t="s">
+        <x:v>4415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="876" spans="1:16">
+      <x:c r="A876" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B876" s="0" t="s">
+        <x:v>4416</x:v>
+      </x:c>
+      <x:c r="C876" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D876" s="0" t="s">
+        <x:v>2878</x:v>
+      </x:c>
+      <x:c r="E876" s="0" t="s">
+        <x:v>4417</x:v>
+      </x:c>
+      <x:c r="F876" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G876" s="0" t="s">
+        <x:v>4418</x:v>
+      </x:c>
+      <x:c r="I876" s="0" t="s">
+        <x:v>3585</x:v>
+      </x:c>
+      <x:c r="J876" s="0" t="s">
+        <x:v>4283</x:v>
+      </x:c>
+      <x:c r="K876" s="0" t="s">
+        <x:v>4408</x:v>
+      </x:c>
+      <x:c r="L876" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M876" s="0" t="s">
+        <x:v>4419</x:v>
+      </x:c>
+      <x:c r="N876" s="0" t="s">
+        <x:v>4420</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
